--- a/data/UG/MA-BTech.xlsx
+++ b/data/UG/MA-BTech.xlsx
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Classical Probability and Preliminaries: Discrete Probability, Conditional Probability, Expectation, Theorems on Bernoulli Trials. Basic definitions of algebraic structures, few facts about Banach Spaces; Measure Theory: Sigma Algebra, Measurable functions, Positive and Vector valued measures, Total Variation of a measure, Spaces of measures, Lebesgue Measure on R, Completion, Caratheodory’s theorem, • Lebesgue Integration: Abstract Integral, Convergence theorems of Lebesgue and Levi, Fatou’s Lemma, Radon-Nikodym Theorem, Modes of convergence of measurable functions; Product Spaces: Finite Products, Fubini’s Theorem, Infinite Products, Kolmogorov’s Extension Theorem; Independence: Random Variables, Distributions, Independent Random Variables, Weak and Strong Law of Large Numbers, Applications.</t>
   </si>
   <si>
-    <t xml:space="preserve">Operators on Hilbert spaces: Basics of Hilbert spaces; Bounded linear operators, Adjoint of operators between Hilbert spaces; Self-adjoint, normal and unitary operators; Numerical range and numerical radius; compact operators, Hilbert{Schmidt operators. Spectral results for Hilbert space operators: Eigen spectrum, approximate eigen spectrum; Spectrum and resolvent; Spectral radius formula; Spectral mapping theorem; Riesz-Schauder theory; Spectral results for normal, self-adjoint and unitary operators; Functions of self-adjoint operators. Spectral representation of operators: Spectral theorem and singular value representation for compact self-adjoint operators; Spectral theorem for self-adjoint operators. Unbounded Operators: Basics of unbounded closed Operators in Hilbert spaces, Cayley transform, Spectral theorem for unbounded self-adjoint operators.</t>
+    <t xml:space="preserve">Operators on Hilbert spaces: Basics of Hilbert spaces; Bounded linear operators, Adjoint of operators between Hilbert spaces; Self-adjoint, normal and unitary operators; Numerical range and numerical radius; compact operators, Hilbert{Schmidt operators}. Spectral results for Hilbert space operators: Eigen spectrum, approximate eigen spectrum; Spectrum and resolvent; Spectral radius formula; Spectral mapping theorem; Riesz-Schauder theory; Spectral results for normal, self-adjoint and unitary operators; Functions of self-adjoint operators. Spectral representation of operators: Spectral theorem and singular value representation for compact self-adjoint operators; Spectral theorem for self-adjoint operators. Unbounded Operators: Basics of unbounded closed Operators in Hilbert spaces, Cayley transform, Spectral theorem for unbounded self-adjoint operators.</t>
   </si>
   <si>
     <t xml:space="preserve">Data Representation: Eigenvalues - Eigenvectors - PCA - SVD - Fischer Discriminant; Functionals - Hilbert Spaces - Riesz Representation Theorem - Kernel Trick - Kernel PCA - Kernel SVM; Norm Minimization - LLE - Sparse Representation Theory - Dimensionality Reduction \\ Supervised Learning: Convex Optimisation - Primal-Dual Transformations - Karush-Kuhn-Tucker Conditions - SVM; Probability and Measures - Types of Convergences - Statistical Learning Theory - VC dimension and Capacity - Some bounds \\ Unsupervised Learning: Expectation Maximization - EM-based Clustering - C-means clustering - Fuzzy CM clustering; Operator Theory - Decomposition of Operators and Subspaces - Subspace Clustering</t>
@@ -4103,7 +4103,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
